--- a/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
@@ -126,7 +126,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,15 +142,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -151,15 +163,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,141 +467,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -516,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -527,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -549,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -571,7 +571,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -615,7 +615,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">

--- a/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>hübsh</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>lazy</t>
+  </si>
+  <si>
+    <t>unter</t>
+  </si>
+  <si>
+    <t>below</t>
+  </si>
+  <si>
+    <t>oben</t>
+  </si>
+  <si>
+    <t>above</t>
   </si>
 </sst>
 </file>
@@ -470,7 +482,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -494,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -505,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -527,7 +539,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -538,7 +550,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -549,7 +561,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -560,7 +572,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -571,7 +583,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -582,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -593,7 +605,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -604,7 +616,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -615,7 +627,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -626,7 +638,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -637,7 +649,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -648,18 +660,30 @@
         <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>

--- a/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>hübsh</t>
   </si>
@@ -38,12 +38,6 @@
     <t>strict</t>
   </si>
   <si>
-    <t>glücklich</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>arm</t>
   </si>
   <si>
@@ -98,30 +92,12 @@
     <t>special</t>
   </si>
   <si>
-    <t>herz</t>
-  </si>
-  <si>
-    <t>heart</t>
-  </si>
-  <si>
-    <t>gleich</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
     <t>schwierig</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>fauler</t>
-  </si>
-  <si>
-    <t>lazy</t>
-  </si>
-  <si>
     <t>unter</t>
   </si>
   <si>
@@ -132,20 +108,19 @@
   </si>
   <si>
     <t>above</t>
+  </si>
+  <si>
+    <t>kasten</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,20 +129,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -175,33 +145,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -488,212 +440,169 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -491,7 +491,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -535,7 +535,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -546,7 +546,7 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -579,7 +579,7 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -590,7 +590,7 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -601,7 +601,7 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -502,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -546,7 +546,7 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -590,7 +590,7 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">

--- a/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>hübsh</t>
   </si>
@@ -44,73 +44,61 @@
     <t>poor</t>
   </si>
   <si>
-    <t>erwachsen</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
     <t>jugendlich</t>
   </si>
   <si>
+    <t>verwandte</t>
+  </si>
+  <si>
+    <t>wiederholung</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>heiraten</t>
+  </si>
+  <si>
+    <t>sondere</t>
+  </si>
+  <si>
+    <t>schwierig</t>
+  </si>
+  <si>
+    <t>unter</t>
+  </si>
+  <si>
+    <t>oben</t>
+  </si>
+  <si>
+    <t>kasten</t>
+  </si>
+  <si>
     <t>youthful</t>
   </si>
   <si>
-    <t>außer</t>
-  </si>
-  <si>
-    <t>except</t>
-  </si>
-  <si>
-    <t>verwandte</t>
-  </si>
-  <si>
     <t>relation</t>
   </si>
   <si>
-    <t>wiederholung</t>
-  </si>
-  <si>
     <t>repetition</t>
   </si>
   <si>
-    <t>zeigen</t>
-  </si>
-  <si>
     <t>to show</t>
   </si>
   <si>
-    <t>heiraten</t>
-  </si>
-  <si>
     <t>marry</t>
   </si>
   <si>
-    <t>sondere</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
-    <t>schwierig</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>unter</t>
-  </si>
-  <si>
     <t>below</t>
   </si>
   <si>
-    <t>oben</t>
-  </si>
-  <si>
     <t>above</t>
-  </si>
-  <si>
-    <t>kasten</t>
   </si>
   <si>
     <t>box</t>
@@ -137,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,12 +133,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,15 +421,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.15625" customWidth="true"/>
+    <col min="2" max="2" width="9.15625" customWidth="true"/>
+    <col min="3" max="3" width="2.15625" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -461,7 +456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -472,137 +467,109 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
+    <row r="10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
+    <row r="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" fullCalcOnLoad="true"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>hübsh</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>streng</t>
   </si>
@@ -56,9 +50,6 @@
     <t>zeigen</t>
   </si>
   <si>
-    <t>heiraten</t>
-  </si>
-  <si>
     <t>sondere</t>
   </si>
   <si>
@@ -68,12 +59,6 @@
     <t>unter</t>
   </si>
   <si>
-    <t>oben</t>
-  </si>
-  <si>
-    <t>kasten</t>
-  </si>
-  <si>
     <t>youthful</t>
   </si>
   <si>
@@ -86,9 +71,6 @@
     <t>to show</t>
   </si>
   <si>
-    <t>marry</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
@@ -96,12 +78,6 @@
   </si>
   <si>
     <t>below</t>
-  </si>
-  <si>
-    <t>above</t>
-  </si>
-  <si>
-    <t>box</t>
   </si>
 </sst>
 </file>
@@ -125,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -133,14 +109,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,20 +395,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.15625" customWidth="true"/>
-    <col min="2" max="2" width="9.15625" customWidth="true"/>
-    <col min="3" max="3" width="2.15625" customWidth="true"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="2.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,10 +416,10 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -453,123 +427,85 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
       <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,60 +24,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>streng</t>
-  </si>
-  <si>
-    <t>strict</t>
-  </si>
-  <si>
-    <t>arm</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>jugendlich</t>
   </si>
   <si>
-    <t>verwandte</t>
-  </si>
-  <si>
-    <t>wiederholung</t>
-  </si>
-  <si>
-    <t>zeigen</t>
-  </si>
-  <si>
-    <t>sondere</t>
-  </si>
-  <si>
-    <t>schwierig</t>
-  </si>
-  <si>
-    <t>unter</t>
-  </si>
-  <si>
     <t>youthful</t>
   </si>
   <si>
-    <t>relation</t>
-  </si>
-  <si>
-    <t>repetition</t>
-  </si>
-  <si>
-    <t>to show</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>below</t>
+    <t>mutig</t>
+  </si>
+  <si>
+    <t>treu</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>faithful</t>
+  </si>
+  <si>
+    <t>überlegen</t>
+  </si>
+  <si>
+    <t>superior</t>
   </si>
 </sst>
 </file>
@@ -101,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,12 +79,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,20 +367,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="2.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="true"/>
+    <col min="2" max="2" width="7.93359375" customWidth="true"/>
+    <col min="3" max="3" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,96 +388,35 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
+    <row r="4" x14ac:dyDescent="0.3">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>jugendlich</t>
   </si>
@@ -44,10 +44,34 @@
     <t>faithful</t>
   </si>
   <si>
-    <t>überlegen</t>
-  </si>
-  <si>
-    <t>superior</t>
+    <t>ankreuzen</t>
+  </si>
+  <si>
+    <t>to check</t>
+  </si>
+  <si>
+    <t>Entscheidung</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>unterstützen</t>
+  </si>
+  <si>
+    <t>to support</t>
+  </si>
+  <si>
+    <t>Entscheidung</t>
+  </si>
+  <si>
+    <t>unterstützen</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>to support</t>
   </si>
 </sst>
 </file>
@@ -367,16 +391,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" customWidth="true"/>
-    <col min="2" max="2" width="7.93359375" customWidth="true"/>
+    <col min="1" max="1" width="11.82421875" customWidth="true"/>
+    <col min="2" max="2" width="9.6015625" customWidth="true"/>
     <col min="3" max="3" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
@@ -414,9 +438,31 @@
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.3">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.3">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.3">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
+++ b/Mini_project_German_Learning_Tool/German_vocab_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>jugendlich</t>
   </si>
@@ -35,43 +35,127 @@
     <t>mutig</t>
   </si>
   <si>
-    <t>treu</t>
-  </si>
-  <si>
     <t>brave</t>
   </si>
   <si>
-    <t>faithful</t>
-  </si>
-  <si>
-    <t>ankreuzen</t>
-  </si>
-  <si>
-    <t>to check</t>
-  </si>
-  <si>
     <t>Entscheidung</t>
   </si>
   <si>
+    <t>unterstützen</t>
+  </si>
+  <si>
+    <t>niemand</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>lexikon</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>vergleichen</t>
+  </si>
+  <si>
+    <t>wirklich</t>
+  </si>
+  <si>
+    <t>ergänzen</t>
+  </si>
+  <si>
+    <t>Reihenfolge</t>
+  </si>
+  <si>
+    <t>lebensfreude</t>
+  </si>
+  <si>
     <t>decision</t>
   </si>
   <si>
-    <t>unterstützen</t>
-  </si>
-  <si>
     <t>to support</t>
   </si>
   <si>
-    <t>Entscheidung</t>
-  </si>
-  <si>
-    <t>unterstützen</t>
-  </si>
-  <si>
-    <t>decision</t>
-  </si>
-  <si>
-    <t>to support</t>
+    <t>nobody</t>
+  </si>
+  <si>
+    <t>to choose</t>
+  </si>
+  <si>
+    <t>encyclopedia</t>
+  </si>
+  <si>
+    <t>to swap</t>
+  </si>
+  <si>
+    <t>to compare</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>to complement</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>joy</t>
+  </si>
+  <si>
+    <t>zwischen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>to start</t>
+  </si>
+  <si>
+    <t>Reihenfolge</t>
+  </si>
+  <si>
+    <t>lebensfreude</t>
+  </si>
+  <si>
+    <t>zwischen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>joy</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>to start</t>
+  </si>
+  <si>
+    <t>zwischen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>to start</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>to start</t>
   </si>
 </sst>
 </file>
@@ -95,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -104,13 +188,41 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,17 +503,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.82421875" customWidth="true"/>
-    <col min="2" max="2" width="9.6015625" customWidth="true"/>
-    <col min="3" max="3" width="2.15625" customWidth="true"/>
+    <col min="2" max="2" width="11.82421875" customWidth="true"/>
+    <col min="3" max="3" width="3.15625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
@@ -412,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">
@@ -420,49 +532,136 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.3">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="0">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.3">
-      <c r="A5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="0">
+    <row r="7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.3">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
+    <row r="9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.3">
+      <c r="A11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.3">
+      <c r="A12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+    </row>
+    <row r="14" x14ac:dyDescent="0.3">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+    </row>
+    <row r="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
